--- a/MIRIAMBE.xlsx
+++ b/MIRIAMBE.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="102">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>ENOS</t>
+  </si>
+  <si>
+    <t>PAID ON 14/12</t>
+  </si>
+  <si>
+    <t>DEC</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1693,7 @@
   <dimension ref="A2:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,11 +1838,11 @@
         <v>5000</v>
       </c>
       <c r="G8" s="16">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
     </row>
@@ -2001,7 +2010,7 @@
       </c>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>61</v>
       </c>
@@ -2029,9 +2038,9 @@
       </c>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B16" s="50" t="s">
         <v>22</v>
@@ -2045,10 +2054,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16">
+        <v>2000</v>
+      </c>
       <c r="H16" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="15"/>
     </row>
@@ -2062,14 +2073,14 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <f>'OCTOBER 21'!H17:H30</f>
-        <v>1050</v>
+        <v>50</v>
       </c>
       <c r="E17" s="18">
         <v>2000</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
-        <v>3050</v>
+        <v>2050</v>
       </c>
       <c r="G17" s="16">
         <f>1000+500</f>
@@ -2077,7 +2088,7 @@
       </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -2141,7 +2152,7 @@
       </c>
       <c r="D20" s="15">
         <f>SUM(D6:D19)</f>
-        <v>13150</v>
+        <v>12150</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="2"/>
@@ -2149,15 +2160,15 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>44050</v>
+        <v>43050</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
-        <v>20300</v>
+        <v>26300</v>
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>23750</v>
+        <v>16750</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -2168,7 +2179,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="28">
         <f>H20-5000</f>
-        <v>18750</v>
+        <v>11750</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -2249,7 +2260,7 @@
       </c>
       <c r="F26" s="38">
         <f>G20</f>
-        <v>20300</v>
+        <v>26300</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -2274,7 +2285,7 @@
       </c>
       <c r="F27" s="38">
         <f>'OCTOBER 21'!H38</f>
-        <v>-20550</v>
+        <v>-19550</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -2497,7 +2508,7 @@
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>-3340</v>
+        <v>3660</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
@@ -2505,7 +2516,7 @@
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-29150</v>
+        <v>-22150</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="54" t="s">
@@ -2573,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2661,17 +2672,15 @@
         <f>NOVEMBER!H6:H19</f>
         <v>11100</v>
       </c>
-      <c r="E6" s="16">
-        <v>5000</v>
-      </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="16">
         <f>C6+D6+E6</f>
-        <v>16100</v>
+        <v>11100</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17">
         <f>F6-G6</f>
-        <v>16100</v>
+        <v>11100</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -2706,19 +2715,21 @@
       <c r="C8" s="14"/>
       <c r="D8" s="15">
         <f>NOVEMBER!H8:H21</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <v>5000</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="G8" s="16"/>
+        <v>5000</v>
+      </c>
+      <c r="G8" s="16">
+        <v>5000</v>
+      </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
     </row>
@@ -2765,10 +2776,12 @@
         <f>C10+D10+E10</f>
         <v>2200</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <v>2200</v>
+      </c>
       <c r="H10" s="17">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="I10" s="15"/>
     </row>
@@ -2792,11 +2805,12 @@
         <v>3600</v>
       </c>
       <c r="G11" s="16">
-        <v>800</v>
+        <f>800+1000+500</f>
+        <v>2300</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="I11" s="15"/>
     </row>
@@ -2845,10 +2859,12 @@
         <f>C13+D13+E13</f>
         <v>3200</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16">
+        <v>2500</v>
+      </c>
       <c r="H13" s="17">
         <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>700</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -2897,10 +2913,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16">
+        <v>2000</v>
+      </c>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15"/>
     </row>
@@ -2914,19 +2932,19 @@
       <c r="C16" s="51"/>
       <c r="D16" s="15">
         <f>NOVEMBER!H16:H29</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <v>2000</v>
       </c>
       <c r="F16" s="16">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="17">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I16" s="15"/>
     </row>
@@ -2940,19 +2958,21 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <f>NOVEMBER!H17:H30</f>
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="E17" s="18">
         <v>2000</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="G17" s="16"/>
+        <v>2550</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1000</v>
+      </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>3550</v>
+        <v>1550</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -3017,23 +3037,23 @@
       </c>
       <c r="D20" s="15">
         <f>SUM(D6:D19)</f>
-        <v>23750</v>
+        <v>16750</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="2"/>
-        <v>30900</v>
+        <v>25900</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>54650</v>
+        <v>42650</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
-        <v>800</v>
+        <v>15000</v>
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>53850</v>
+        <v>27650</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -3044,7 +3064,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="28">
         <f>H20-5000</f>
-        <v>48850</v>
+        <v>22650</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -3107,32 +3127,32 @@
       <c r="I25" s="3"/>
       <c r="J25" s="28">
         <f>E20</f>
-        <v>30900</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B26" s="38">
         <f>E20</f>
-        <v>30900</v>
+        <v>25900</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F26" s="38">
         <f>G20</f>
-        <v>800</v>
+        <v>15000</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="34"/>
       <c r="J26" s="48">
         <f>C30</f>
-        <v>3090</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3150,14 +3170,14 @@
       </c>
       <c r="F27" s="38">
         <f>NOVEMBER!H38</f>
-        <v>-29150</v>
+        <v>-22150</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="34"/>
       <c r="J27" s="48">
         <f>J25-J26</f>
-        <v>27810</v>
+        <v>23310</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3194,7 +3214,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="48">
         <f>J27-J28</f>
-        <v>7810</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -3206,7 +3226,7 @@
       </c>
       <c r="C30" s="38">
         <f>B30*B26</f>
-        <v>3090</v>
+        <v>2590</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26" t="s">
@@ -3217,12 +3237,12 @@
       </c>
       <c r="G30" s="38">
         <f>F30*B26</f>
-        <v>3090</v>
+        <v>2590</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="3"/>
       <c r="J30">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3243,7 +3263,7 @@
       <c r="I31" s="34"/>
       <c r="J31" s="48">
         <f>J29-J30</f>
-        <v>5810</v>
+        <v>-1690</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3283,24 +3303,40 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="B34" s="39"/>
-      <c r="C34" s="26"/>
+      <c r="C34" s="26">
+        <v>5000</v>
+      </c>
       <c r="D34" s="26"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="F34" s="39"/>
-      <c r="G34" s="26"/>
+      <c r="G34" s="26">
+        <v>5000</v>
+      </c>
       <c r="H34" s="26"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="B35" s="39"/>
-      <c r="C35" s="26"/>
+      <c r="C35" s="26">
+        <v>10000</v>
+      </c>
       <c r="D35" s="26"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="F35" s="39"/>
-      <c r="G35" s="26"/>
+      <c r="G35" s="26">
+        <v>10000</v>
+      </c>
       <c r="H35" s="26"/>
       <c r="I35" s="53" t="s">
         <v>93</v>
@@ -3347,30 +3383,30 @@
       </c>
       <c r="B38" s="44">
         <f>B29+B26+B27+B28-C30</f>
-        <v>19410</v>
+        <v>14910</v>
       </c>
       <c r="C38" s="44">
         <f>SUM(C32:C37)</f>
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="D38" s="44">
         <f>B38-C38</f>
-        <v>-590</v>
+        <v>-20090</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>-31440</v>
+        <v>-9740</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-51440</v>
+        <v>-44740</v>
       </c>
       <c r="I38" s="55"/>
       <c r="J38" s="54" t="s">
@@ -6752,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7614,7 +7650,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8008,12 +8044,12 @@
         <v>3150</v>
       </c>
       <c r="G17" s="16">
-        <f>1000+100+700+300</f>
-        <v>2100</v>
+        <f>1000+100+700+300+1000</f>
+        <v>3100</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>50</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -8090,11 +8126,11 @@
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
-        <v>23200</v>
+        <v>24200</v>
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>14050</v>
+        <v>13050</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -8179,7 +8215,7 @@
       </c>
       <c r="F26" s="38">
         <f>G20</f>
-        <v>23200</v>
+        <v>24200</v>
       </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
@@ -8390,7 +8426,7 @@
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>23379</v>
+        <v>24379</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
@@ -8398,7 +8434,7 @@
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-11050</v>
+        <v>-10050</v>
       </c>
       <c r="I38" s="43"/>
       <c r="K38" s="28"/>
@@ -8832,14 +8868,14 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <f>'AUGUST 21'!H17:H30</f>
-        <v>1050</v>
+        <v>50</v>
       </c>
       <c r="E17" s="18">
         <v>2000</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
-        <v>3050</v>
+        <v>2050</v>
       </c>
       <c r="G17" s="16">
         <f>1500</f>
@@ -8847,7 +8883,7 @@
       </c>
       <c r="H17" s="17">
         <f>F17-G17</f>
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -8912,7 +8948,7 @@
       </c>
       <c r="D20" s="15">
         <f>SUM(D6:D19)</f>
-        <v>14050</v>
+        <v>13050</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="2"/>
@@ -8920,7 +8956,7 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>44950</v>
+        <v>43950</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
@@ -8928,7 +8964,7 @@
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>22550</v>
+        <v>21550</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -9035,7 +9071,7 @@
       </c>
       <c r="F27" s="38">
         <f>'AUGUST 21'!H38</f>
-        <v>-11050</v>
+        <v>-10050</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -9243,7 +9279,7 @@
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>8260</v>
+        <v>9260</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
@@ -9251,7 +9287,7 @@
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-19550</v>
+        <v>-18550</v>
       </c>
       <c r="I38" s="43"/>
     </row>
@@ -9298,7 +9334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -9682,14 +9718,14 @@
       <c r="C17" s="14"/>
       <c r="D17" s="15">
         <f>'SEPT 21'!H17:H32</f>
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="E17" s="18">
         <v>2000</v>
       </c>
       <c r="F17" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>2550</v>
       </c>
       <c r="G17" s="16">
         <f>1000+1500</f>
@@ -9697,7 +9733,7 @@
       </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>50</v>
       </c>
       <c r="I17" s="15"/>
     </row>
@@ -9763,7 +9799,7 @@
       </c>
       <c r="D20" s="15">
         <f>SUM(D6:D19)</f>
-        <v>22550</v>
+        <v>21550</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="2"/>
@@ -9771,7 +9807,7 @@
       </c>
       <c r="F20" s="16">
         <f t="shared" si="2"/>
-        <v>49450</v>
+        <v>48450</v>
       </c>
       <c r="G20" s="16">
         <f>SUM(G6:G19)</f>
@@ -9779,7 +9815,7 @@
       </c>
       <c r="H20" s="17">
         <f>SUM(H6:H19)</f>
-        <v>23550</v>
+        <v>22550</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="2"/>
@@ -9790,7 +9826,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="28">
         <f>H20-5000</f>
-        <v>18550</v>
+        <v>17550</v>
       </c>
       <c r="I21" s="3"/>
     </row>
@@ -9896,7 +9932,7 @@
       </c>
       <c r="F27" s="38">
         <f>'SEPT 21'!H38</f>
-        <v>-19550</v>
+        <v>-18550</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -10106,7 +10142,7 @@
       </c>
       <c r="F38" s="44">
         <f>F26+F27+F29+F28-G30</f>
-        <v>3660</v>
+        <v>4660</v>
       </c>
       <c r="G38" s="44">
         <f>SUM(G32:G37)</f>
@@ -10114,7 +10150,7 @@
       </c>
       <c r="H38" s="44">
         <f>F38-G38</f>
-        <v>-20550</v>
+        <v>-19550</v>
       </c>
       <c r="I38" s="43"/>
     </row>
